--- a/biology/Médecine/Giovanni_Battista_Codronchi/Giovanni_Battista_Codronchi.xlsx
+++ b/biology/Médecine/Giovanni_Battista_Codronchi/Giovanni_Battista_Codronchi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Battista Codronchi est un médecin italien de la Renaissance.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De Christiana ac tuta medendi Ratione libri duo, varia doctrina referti, cum Tractatu de baccis orientalibus et antimonio, Ferrare, 1591, in-4° ; Bologne, 1629, in-4°.
 De Morbis veneficis ac veneficiis libri quatuor, in quibus non solum certis rationibus veneficia dari demonstratur, sed eorum species, causæ, signa el effectus nova methodo aperiuntur, etc., Venise, 1595, in-8° ; Milan, 1618, in-8°. L’auteur ne s’est pas élevé au-dessus des préjugés de son siècle ; il croit fermement à la puissance des maléfices. Après avoir fait une longue énumération des maladies qui en dépendent, il indique les moyens de les prévenir et de les guérir.
